--- a/practica5/resumen_bien.xlsx
+++ b/practica5/resumen_bien.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="23">
   <si>
     <t>Batch</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Alg. Entr.</t>
+  </si>
+  <si>
+    <t>(0.2,-)</t>
   </si>
 </sst>
 </file>
@@ -218,8 +221,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="D7:P53" totalsRowShown="0" headerRowCellStyle="Bueno" dataCellStyle="Bueno">
-  <autoFilter ref="D7:P53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="D7:P54" totalsRowShown="0" headerRowCellStyle="Bueno" dataCellStyle="Bueno">
+  <autoFilter ref="D7:P54"/>
   <tableColumns count="13">
     <tableColumn id="1" name="N_capa_1"/>
     <tableColumn id="2" name="N_capa_2"/>
@@ -502,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:P53"/>
+  <dimension ref="D7:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2449,6 +2452,47 @@
         <v>97.64</v>
       </c>
     </row>
+    <row r="54" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>100</v>
+      </c>
+      <c r="E54">
+        <v>100</v>
+      </c>
+      <c r="F54" s="7">
+        <v>10</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>2</v>
+      </c>
+      <c r="J54" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54">
+        <v>16</v>
+      </c>
+      <c r="L54" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N54" t="s">
+        <v>22</v>
+      </c>
+      <c r="O54">
+        <v>99.12</v>
+      </c>
+      <c r="P54">
+        <v>97.64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
